--- a/jpcore-r4/feature/swg2-ImagingStudy_Radiology/observations-summary.xlsx
+++ b/jpcore-r4/feature/swg2-ImagingStudy_Radiology/observations-summary.xlsx
@@ -80,7 +80,7 @@
     <t>Observation Category Codes#exam</t>
   </si>
   <si>
-    <t>JP Core Physical Exam Codes#physical-findings</t>
+    <t>JP Core Physical Exam Code CodeSystem#physical-findings</t>
   </si>
   <si>
     <t>dateTime, Period</t>
